--- a/mlResults/input/2021-07-16_step2_excel.xlsx
+++ b/mlResults/input/2021-07-16_step2_excel.xlsx
@@ -1638,7 +1638,7 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>3-I-SE</t>
+          <t>4-I-NE</t>
         </is>
       </c>
     </row>

--- a/mlResults/input/2021-07-16_step2_excel.xlsx
+++ b/mlResults/input/2021-07-16_step2_excel.xlsx
@@ -1638,7 +1638,7 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>4-I-NE</t>
+          <t>3-I-SE</t>
         </is>
       </c>
     </row>

--- a/mlResults/input/2021-07-16_step2_excel.xlsx
+++ b/mlResults/input/2021-07-16_step2_excel.xlsx
@@ -2966,7 +2966,7 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>N-SE</t>
+          <t>N-MF</t>
         </is>
       </c>
     </row>
